--- a/CASUAL/LA TICC/JABINES, MARIA SHELLY.xlsx
+++ b/CASUAL/LA TICC/JABINES, MARIA SHELLY.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>12/12,14,22,26-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-7)</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2621,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2989,12 +2998,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="J64" sqref="J64"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3164,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.5</v>
+        <v>63.61</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3165,7 +3174,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4364,11 +4373,15 @@
       <c r="A69" s="40">
         <v>44743</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.39</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4424,11 +4437,15 @@
       <c r="A72" s="40">
         <v>44835</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4711,13 +4728,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4729,13 +4748,15 @@
         <v>45291</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4743,8 +4764,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45322</v>
+      <c r="A88" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4762,7 +4783,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4779,7 +4800,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45351</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5483,20 +5506,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5545,8 +5584,8 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A56" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
@@ -8140,7 +8179,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8207,11 +8246,15 @@
         <v>133.80000000000001</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>7</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA TICC/JABINES, MARIA SHELLY.xlsx
+++ b/CASUAL/LA TICC/JABINES, MARIA SHELLY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2998,12 +2998,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="J64" sqref="J64"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,7 +3164,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.61</v>
+        <v>59.86</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3174,7 +3174,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>90</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4747,11 +4747,15 @@
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -4785,25 +4789,31 @@
       <c r="A89" s="40">
         <v>45322</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>45321</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -4812,13 +4822,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45351</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5522,20 +5538,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
